--- a/data_exploration/pos_split_word_stats.xlsx
+++ b/data_exploration/pos_split_word_stats.xlsx
@@ -14,15 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Language</t>
   </si>
   <si>
+    <t>split_word_%_train</t>
+  </si>
+  <si>
+    <t>avg_subwords_per_split_train</t>
+  </si>
+  <si>
+    <t>subword_token_%_train</t>
+  </si>
+  <si>
     <t>split_word_%</t>
   </si>
   <si>
     <t>avg_subwords_per_split</t>
+  </si>
+  <si>
+    <t>subword_token_%</t>
   </si>
   <si>
     <t>Bulgarian</t>
@@ -425,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,170 +453,353 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
+        <v>22.4413475121985</v>
+      </c>
+      <c r="C2">
+        <v>3.05514897561164</v>
+      </c>
+      <c r="D2">
+        <v>68.56165986323809</v>
+      </c>
+      <c r="E2">
         <v>22.60833874884564</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>3.044326777609682</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="G2">
+        <v>68.82717105038137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
+        <v>10.10295084662173</v>
+      </c>
+      <c r="C3">
+        <v>2.573375368656565</v>
+      </c>
+      <c r="D3">
+        <v>25.99868485944435</v>
+      </c>
+      <c r="E3">
         <v>9.207182093957531</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>2.429652715939448</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3">
+        <v>22.37025498073297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
+        <v>20.15296640457469</v>
+      </c>
+      <c r="C4">
+        <v>3.30524225012414</v>
+      </c>
+      <c r="D4">
+        <v>66.61043602573267</v>
+      </c>
+      <c r="E4">
         <v>20.61764183872685</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>3.073314203730273</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4">
+        <v>63.36449151038277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
+        <v>24.66876768716234</v>
+      </c>
+      <c r="C5">
+        <v>2.952939642810585</v>
+      </c>
+      <c r="D5">
+        <v>72.84538204270645</v>
+      </c>
+      <c r="E5">
         <v>24.78200143444943</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>3.050723533891851</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5">
+        <v>75.60303499301649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
+        <v>24.54311264858499</v>
+      </c>
+      <c r="C6">
+        <v>2.782444407791156</v>
+      </c>
+      <c r="D6">
+        <v>68.2898465388437</v>
+      </c>
+      <c r="E6">
         <v>24.56225793733621</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>2.780662826928524</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6">
+        <v>68.29935759178089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
+        <v>30.55055095582232</v>
+      </c>
+      <c r="C7">
+        <v>2.095107675317504</v>
+      </c>
+      <c r="D7">
+        <v>64.00669379272185</v>
+      </c>
+      <c r="E7">
         <v>30.48765982753494</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>2.191358626743392</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7">
+        <v>66.80939637228664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
+        <v>21.79389577133366</v>
+      </c>
+      <c r="C8">
+        <v>2.367577008574151</v>
+      </c>
+      <c r="D8">
+        <v>51.59872655547096</v>
+      </c>
+      <c r="E8">
         <v>20.26344280043306</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>2.38646482635797</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8">
+        <v>48.35799350415012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="E9">
         <v>24.788257663056</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>3.737056191527689</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="G9">
+        <v>92.63511177690712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
+        <v>25.33347881829837</v>
+      </c>
+      <c r="C10">
+        <v>3.189802950360719</v>
+      </c>
+      <c r="D10">
+        <v>80.80880547750894</v>
+      </c>
+      <c r="E10">
         <v>24.48725916718459</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>3.17138022721779</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="G10">
+        <v>77.65840954156678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
+        <v>27.89329148685759</v>
+      </c>
+      <c r="C11">
+        <v>2.718987341772152</v>
+      </c>
+      <c r="D11">
+        <v>75.84150647312671</v>
+      </c>
+      <c r="E11">
         <v>28.01770928673293</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>2.717465623338145</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="G11">
+        <v>76.13716183137865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
+        <v>25.27807634681779</v>
+      </c>
+      <c r="C12">
+        <v>2.258459903039284</v>
+      </c>
+      <c r="D12">
+        <v>57.08952185525374</v>
+      </c>
+      <c r="E12">
         <v>23.80940950552088</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>2.507510837786067</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="G12">
+        <v>59.70235237638022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
+        <v>29.59454620289183</v>
+      </c>
+      <c r="C13">
+        <v>2.890601543397382</v>
+      </c>
+      <c r="D13">
+        <v>85.54604093022427</v>
+      </c>
+      <c r="E13">
         <v>29.46212098536323</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>2.709336584374682</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13">
+        <v>79.82280223891766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
+        <v>27.24007159217492</v>
+      </c>
+      <c r="C14">
+        <v>2.891380260981437</v>
+      </c>
+      <c r="D14">
+        <v>78.76140530933577</v>
+      </c>
+      <c r="E14">
         <v>25.55776125151847</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>2.914444702063529</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14">
+        <v>74.48668187609256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
+        <v>24.12347822827981</v>
+      </c>
+      <c r="C15">
+        <v>2.949585706887623</v>
+      </c>
+      <c r="D15">
+        <v>71.1542665825489</v>
+      </c>
+      <c r="E15">
         <v>22.49073715644528</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>2.895131546594541</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15">
+        <v>65.11364264779075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
+        <v>26.13826414717555</v>
+      </c>
+      <c r="C16">
+        <v>2.803593171779874</v>
+      </c>
+      <c r="D16">
+        <v>73.28105888520007</v>
+      </c>
+      <c r="E16">
         <v>25.97063735040356</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>2.82277294038848</v>
+      </c>
+      <c r="G16">
+        <v>73.30921235736155</v>
       </c>
     </row>
   </sheetData>
